--- a/Design Document/Armour.xlsx
+++ b/Design Document/Armour.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Хобби\Холивар\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Konstantin\HolyWar\Assets\Design Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{443C4F71-C838-4E73-9B41-E200ACFE5D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE2BAC7-2B4A-4F2F-B7E4-615B96820BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Wc3" sheetId="2" r:id="rId1"/>
@@ -29,6 +29,9 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -117,7 +120,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -135,7 +138,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -991,7 +994,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -999,6 +1001,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1036,7 +1039,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1892,7 +1895,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1900,6 +1902,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4370,7 +4373,7 @@
   <dimension ref="A1:F105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W11" sqref="W11"/>
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
